--- a/data/trans_orig/P73-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P73-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7376E12E-DC62-4F6C-867D-6513D0EFDF93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97E934E1-E3F9-4D71-B8C0-F128FFE3A846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{50978A54-6508-4765-AAFD-2694C5DC6616}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A80713DC-5AB1-42F2-B411-86F778B3FBE5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="390">
   <si>
     <t>Población según si están casados o viven en pareja en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -95,28 +95,28 @@
     <t>68,02%</t>
   </si>
   <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
   </si>
   <si>
     <t>69,81%</t>
   </si>
   <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
   </si>
   <si>
     <t>68,91%</t>
   </si>
   <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
   </si>
   <si>
     <t>No</t>
@@ -125,28 +125,28 @@
     <t>31,98%</t>
   </si>
   <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
   </si>
   <si>
     <t>30,19%</t>
   </si>
   <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
   </si>
   <si>
     <t>31,09%</t>
   </si>
   <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,55 +167,55 @@
     <t>65,24%</t>
   </si>
   <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
   </si>
   <si>
     <t>62,88%</t>
   </si>
   <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
   </si>
   <si>
     <t>64,06%</t>
   </si>
   <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
   </si>
   <si>
     <t>34,76%</t>
   </si>
   <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
   </si>
   <si>
     <t>37,12%</t>
   </si>
   <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
   </si>
   <si>
     <t>35,94%</t>
   </si>
   <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -230,730 +230,742 @@
     <t>66,35%</t>
   </si>
   <si>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si están casados o viven en pareja en 2012 (Tasa respuesta: 99,57%)</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>Población según si están casados o viven en pareja en 2015 (Tasa respuesta: 99,92%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
     <t>63,29%</t>
   </si>
   <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
   </si>
   <si>
     <t>36,71%</t>
   </si>
   <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si están casados o viven en pareja en 2012 (Tasa respuesta: 99,57%)</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>Población según si están casados o viven en pareja en 2015 (Tasa respuesta: 99,92%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
     <t>35,39%</t>
   </si>
   <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
   </si>
   <si>
     <t>0,26%</t>
@@ -962,58 +974,52 @@
     <t>0,13%</t>
   </si>
   <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
   </si>
   <si>
     <t>60,34%</t>
   </si>
   <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
   </si>
   <si>
     <t>62,13%</t>
   </si>
   <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
   </si>
   <si>
     <t>39,66%</t>
   </si>
   <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
   </si>
   <si>
     <t>37,87%</t>
   </si>
   <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
   </si>
   <si>
     <t>63,72%</t>
@@ -1022,31 +1028,31 @@
     <t>60,71%</t>
   </si>
   <si>
-    <t>66,94%</t>
+    <t>66,52%</t>
   </si>
   <si>
     <t>52,43%</t>
   </si>
   <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
   </si>
   <si>
     <t>57,77%</t>
   </si>
   <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
   </si>
   <si>
     <t>36,28%</t>
   </si>
   <si>
-    <t>33,06%</t>
+    <t>33,48%</t>
   </si>
   <si>
     <t>39,29%</t>
@@ -1055,37 +1061,37 @@
     <t>47,57%</t>
   </si>
   <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
   </si>
   <si>
     <t>42,23%</t>
   </si>
   <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
   </si>
   <si>
     <t>63,53%</t>
   </si>
   <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
   </si>
   <si>
     <t>60,39%</t>
   </si>
   <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
   </si>
   <si>
     <t>61,93%</t>
@@ -1094,31 +1100,31 @@
     <t>60,7%</t>
   </si>
   <si>
-    <t>63,01%</t>
+    <t>63,15%</t>
   </si>
   <si>
     <t>36,47%</t>
   </si>
   <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
   </si>
   <si>
     <t>39,61%</t>
   </si>
   <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
   </si>
   <si>
     <t>38,07%</t>
   </si>
   <si>
-    <t>36,99%</t>
+    <t>36,85%</t>
   </si>
   <si>
     <t>39,3%</t>
@@ -1614,7 +1620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB9CF904-4E6D-425F-AB11-7E58DD9D5CEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{032E355C-AD03-471C-A79B-81205F479CDE}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2407,13 +2413,13 @@
         <v>472903</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H17" s="7">
         <v>444</v>
@@ -2422,13 +2428,13 @@
         <v>438509</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M17" s="7">
         <v>889</v>
@@ -2437,13 +2443,13 @@
         <v>911412</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2458,13 +2464,13 @@
         <v>205606</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H18" s="7">
         <v>252</v>
@@ -2473,13 +2479,13 @@
         <v>245332</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M18" s="7">
         <v>448</v>
@@ -2488,13 +2494,13 @@
         <v>450938</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2550,7 +2556,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2568,7 +2574,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2583,7 +2589,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2598,7 +2604,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2613,13 +2619,13 @@
         <v>575440</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="H21" s="7">
         <v>568</v>
@@ -2628,13 +2634,13 @@
         <v>592570</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M21" s="7">
         <v>1176</v>
@@ -2643,13 +2649,13 @@
         <v>1168010</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2664,13 +2670,13 @@
         <v>365870</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H22" s="7">
         <v>429</v>
@@ -2679,13 +2685,13 @@
         <v>446042</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M22" s="7">
         <v>814</v>
@@ -2694,13 +2700,13 @@
         <v>811912</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2774,7 +2780,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2789,7 +2795,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2804,7 +2810,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2816,16 +2822,16 @@
         <v>2096</v>
       </c>
       <c r="D25" s="7">
-        <v>2142457</v>
+        <v>2142458</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H25" s="7">
         <v>2053</v>
@@ -2834,13 +2840,13 @@
         <v>2114258</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M25" s="7">
         <v>4149</v>
@@ -2849,13 +2855,13 @@
         <v>4256715</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2870,13 +2876,13 @@
         <v>1133174</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="H26" s="7">
         <v>1244</v>
@@ -2885,13 +2891,13 @@
         <v>1264940</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M26" s="7">
         <v>2361</v>
@@ -2900,13 +2906,13 @@
         <v>2398114</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2918,7 +2924,7 @@
         <v>3213</v>
       </c>
       <c r="D27" s="7">
-        <v>3275631</v>
+        <v>3275632</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>36</v>
@@ -2962,7 +2968,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2983,7 +2989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DA5FBA-4BF7-4860-B77E-37F3B44FA701}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB1A088-7AD6-433A-833D-53BA6D37914B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3000,7 +3006,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3113,7 +3119,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3128,7 +3134,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3143,7 +3149,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3158,13 +3164,13 @@
         <v>64035</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="H5" s="7">
         <v>67</v>
@@ -3173,13 +3179,13 @@
         <v>75579</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="M5" s="7">
         <v>137</v>
@@ -3188,13 +3194,13 @@
         <v>139613</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3209,13 +3215,13 @@
         <v>48495</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="H6" s="7">
         <v>30</v>
@@ -3224,13 +3230,13 @@
         <v>34183</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="M6" s="7">
         <v>79</v>
@@ -3239,13 +3245,13 @@
         <v>82679</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3319,7 +3325,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3334,7 +3340,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3349,7 +3355,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3364,13 +3370,13 @@
         <v>393601</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H9" s="7">
         <v>361</v>
@@ -3379,13 +3385,13 @@
         <v>384532</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M9" s="7">
         <v>725</v>
@@ -3394,13 +3400,13 @@
         <v>778132</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3415,13 +3421,13 @@
         <v>190368</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H10" s="7">
         <v>184</v>
@@ -3430,13 +3436,13 @@
         <v>194033</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M10" s="7">
         <v>368</v>
@@ -3445,13 +3451,13 @@
         <v>384401</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3540,7 +3546,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3555,7 +3561,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3570,13 +3576,13 @@
         <v>668953</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H13" s="7">
         <v>618</v>
@@ -3585,13 +3591,13 @@
         <v>686872</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M13" s="7">
         <v>1231</v>
@@ -3600,13 +3606,13 @@
         <v>1355825</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3621,13 +3627,13 @@
         <v>347862</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H14" s="7">
         <v>321</v>
@@ -3636,13 +3642,13 @@
         <v>344342</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="M14" s="7">
         <v>643</v>
@@ -3651,13 +3657,13 @@
         <v>692204</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,7 +3752,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3776,13 +3782,13 @@
         <v>500806</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H17" s="7">
         <v>463</v>
@@ -3791,13 +3797,13 @@
         <v>513483</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M17" s="7">
         <v>913</v>
@@ -3806,13 +3812,13 @@
         <v>1014289</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3827,13 +3833,13 @@
         <v>255876</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H18" s="7">
         <v>242</v>
@@ -3842,13 +3848,13 @@
         <v>263691</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="M18" s="7">
         <v>480</v>
@@ -3857,13 +3863,13 @@
         <v>519567</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3919,7 +3925,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3952,7 +3958,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3967,7 +3973,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3982,13 +3988,13 @@
         <v>592346</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="H21" s="7">
         <v>606</v>
@@ -3997,13 +4003,13 @@
         <v>637144</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>217</v>
+        <v>125</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>219</v>
+        <v>122</v>
       </c>
       <c r="M21" s="7">
         <v>1167</v>
@@ -4012,13 +4018,13 @@
         <v>1229490</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4033,13 +4039,13 @@
         <v>352619</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H22" s="7">
         <v>390</v>
@@ -4048,10 +4054,10 @@
         <v>406958</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>226</v>
+        <v>135</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>227</v>
+        <v>132</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>228</v>
@@ -4143,7 +4149,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4158,7 +4164,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4173,7 +4179,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4331,7 +4337,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -4352,7 +4358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBC33402-41A6-44EC-AD04-36CD2EDAD5BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB57FE9-9FF3-495F-879D-E57E1723086A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4703,7 +4709,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4718,7 +4724,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4754,7 +4760,7 @@
         <v>277</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>158</v>
+        <v>278</v>
       </c>
       <c r="M9" s="7">
         <v>692</v>
@@ -4763,13 +4769,13 @@
         <v>708863</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4784,13 +4790,13 @@
         <v>203245</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H10" s="7">
         <v>199</v>
@@ -4799,13 +4805,13 @@
         <v>205626</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>167</v>
+        <v>286</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M10" s="7">
         <v>398</v>
@@ -4814,13 +4820,13 @@
         <v>408870</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4894,7 +4900,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4909,7 +4915,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4924,7 +4930,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4939,13 +4945,13 @@
         <v>641913</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H13" s="7">
         <v>644</v>
@@ -4954,13 +4960,13 @@
         <v>691217</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>66</v>
+        <v>296</v>
       </c>
       <c r="M13" s="7">
         <v>1234</v>
@@ -4969,13 +4975,13 @@
         <v>1333130</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4990,13 +4996,13 @@
         <v>378450</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="H14" s="7">
         <v>333</v>
@@ -5005,13 +5011,13 @@
         <v>351696</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>72</v>
+        <v>304</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="M14" s="7">
         <v>692</v>
@@ -5020,13 +5026,13 @@
         <v>730146</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5115,7 +5121,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5130,7 +5136,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5145,13 +5151,13 @@
         <v>485895</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>307</v>
+        <v>224</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="H17" s="7">
         <v>447</v>
@@ -5160,13 +5166,13 @@
         <v>473699</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="M17" s="7">
         <v>893</v>
@@ -5175,13 +5181,13 @@
         <v>959594</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,13 +5202,13 @@
         <v>273657</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>316</v>
+        <v>230</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H18" s="7">
         <v>289</v>
@@ -5211,13 +5217,13 @@
         <v>311312</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M18" s="7">
         <v>539</v>
@@ -5226,13 +5232,13 @@
         <v>584969</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5288,7 +5294,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5321,7 +5327,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5336,7 +5342,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5351,13 +5357,13 @@
         <v>596709</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H21" s="7">
         <v>507</v>
@@ -5366,13 +5372,13 @@
         <v>546259</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M21" s="7">
         <v>1102</v>
@@ -5381,13 +5387,13 @@
         <v>1142968</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5402,13 +5408,13 @@
         <v>339803</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H22" s="7">
         <v>450</v>
@@ -5417,13 +5423,13 @@
         <v>495690</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="M22" s="7">
         <v>786</v>
@@ -5432,13 +5438,13 @@
         <v>835493</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5512,7 +5518,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5527,7 +5533,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -5542,7 +5548,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5557,13 +5563,13 @@
         <v>2154352</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H25" s="7">
         <v>2024</v>
@@ -5572,28 +5578,28 @@
         <v>2139529</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M25" s="7">
         <v>4067</v>
       </c>
       <c r="N25" s="7">
-        <v>4293881</v>
+        <v>4293880</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5608,13 +5614,13 @@
         <v>1236875</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H26" s="7">
         <v>1312</v>
@@ -5623,13 +5629,13 @@
         <v>1403183</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="M26" s="7">
         <v>2497</v>
@@ -5638,13 +5644,13 @@
         <v>2640058</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5686,7 +5692,7 @@
         <v>6564</v>
       </c>
       <c r="N27" s="7">
-        <v>6933939</v>
+        <v>6933938</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>36</v>
@@ -5700,7 +5706,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -5721,7 +5727,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001C81C0-5A1B-432D-A905-098B0841113B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFAF80C2-1AE1-4252-8E09-1E9024B65F95}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5738,7 +5744,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5845,10 +5851,10 @@
         <v>101982</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>36</v>
@@ -5860,10 +5866,10 @@
         <v>130733</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>36</v>
@@ -5875,10 +5881,10 @@
         <v>232715</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>36</v>
@@ -5902,7 +5908,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5917,7 +5923,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5932,7 +5938,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5953,7 +5959,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5968,7 +5974,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5983,7 +5989,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6051,10 +6057,10 @@
         <v>549823</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>36</v>
@@ -6066,10 +6072,10 @@
         <v>619967</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>36</v>
@@ -6081,10 +6087,10 @@
         <v>1169790</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>36</v>
@@ -6108,7 +6114,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -6123,7 +6129,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -6138,7 +6144,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6159,7 +6165,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -6174,7 +6180,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -6189,7 +6195,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6257,10 +6263,10 @@
         <v>1039248</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>36</v>
@@ -6272,10 +6278,10 @@
         <v>1060079</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>36</v>
@@ -6287,10 +6293,10 @@
         <v>2099327</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>36</v>
@@ -6314,7 +6320,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -6329,7 +6335,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6344,7 +6350,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6365,7 +6371,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6380,7 +6386,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6395,7 +6401,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6463,10 +6469,10 @@
         <v>728772</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>36</v>
@@ -6478,10 +6484,10 @@
         <v>874371</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>36</v>
@@ -6493,10 +6499,10 @@
         <v>1603142</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>36</v>
@@ -6535,7 +6541,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -6586,7 +6592,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -6657,7 +6663,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6669,10 +6675,10 @@
         <v>965403</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>36</v>
@@ -6684,10 +6690,10 @@
         <v>1150432</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>36</v>
@@ -6699,10 +6705,10 @@
         <v>2115835</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>36</v>
@@ -6726,7 +6732,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6741,7 +6747,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -6756,7 +6762,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6777,7 +6783,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6792,7 +6798,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6807,7 +6813,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6875,10 +6881,10 @@
         <v>3385228</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>36</v>
@@ -6890,10 +6896,10 @@
         <v>3835581</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>36</v>
@@ -6902,13 +6908,13 @@
         <v>8743</v>
       </c>
       <c r="N24" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>36</v>
@@ -6932,7 +6938,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6947,7 +6953,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -6962,7 +6968,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6983,7 +6989,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6998,7 +7004,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -7013,7 +7019,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7055,7 +7061,7 @@
         <v>8743</v>
       </c>
       <c r="N27" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>36</v>
@@ -7069,7 +7075,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P73-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P73-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97E934E1-E3F9-4D71-B8C0-F128FFE3A846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6BFA834-C554-4BE8-9341-5570C11990A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A80713DC-5AB1-42F2-B411-86F778B3FBE5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2AAB796F-C6A6-4F7C-9644-FF2B396E7932}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="386">
   <si>
     <t>Población según si están casados o viven en pareja en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>994.0</t>
@@ -95,28 +95,28 @@
     <t>68,02%</t>
   </si>
   <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
   </si>
   <si>
     <t>69,81%</t>
   </si>
   <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
   </si>
   <si>
     <t>68,91%</t>
   </si>
   <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
   </si>
   <si>
     <t>No</t>
@@ -125,34 +125,34 @@
     <t>31,98%</t>
   </si>
   <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
   </si>
   <si>
     <t>30,19%</t>
   </si>
   <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
   </si>
   <si>
     <t>31,09%</t>
   </si>
   <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,33%</t>
@@ -167,58 +167,58 @@
     <t>65,24%</t>
   </si>
   <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
   </si>
   <si>
     <t>62,88%</t>
   </si>
   <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
   </si>
   <si>
     <t>64,06%</t>
   </si>
   <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
   </si>
   <si>
     <t>34,76%</t>
   </si>
   <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
   </si>
   <si>
     <t>37,12%</t>
   </si>
   <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
   </si>
   <si>
     <t>35,94%</t>
   </si>
   <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,21%</t>
@@ -230,904 +230,892 @@
     <t>66,35%</t>
   </si>
   <si>
-    <t>63,19%</t>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si están casados o viven en pareja en 2012 (Tasa respuesta: 99,57%)</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
   </si>
   <si>
     <t>69,65%</t>
   </si>
   <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
   </si>
   <si>
     <t>30,35%</t>
   </si>
   <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>Población según si están casados o viven en pareja en 2016 (Tasa respuesta: 99,92%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
   </si>
   <si>
     <t>56,71%</t>
   </si>
   <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
   </si>
   <si>
     <t>43,29%</t>
   </si>
   <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si están casados o viven en pareja en 2012 (Tasa respuesta: 99,57%)</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>59,62%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
   </si>
   <si>
     <t>63,97%</t>
   </si>
   <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
   </si>
   <si>
     <t>36,03%</t>
   </si>
   <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>Población según si están casados o viven en pareja en 2015 (Tasa respuesta: 99,92%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
   </si>
   <si>
     <t>39,66%</t>
   </si>
   <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
+    <t>43,25%</t>
   </si>
   <si>
     <t>37,87%</t>
   </si>
   <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
+    <t>35,34%</t>
   </si>
   <si>
     <t>63,72%</t>
   </si>
   <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
   </si>
   <si>
     <t>52,43%</t>
   </si>
   <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
   </si>
   <si>
     <t>57,77%</t>
   </si>
   <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
   </si>
   <si>
     <t>36,28%</t>
   </si>
   <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
   </si>
   <si>
     <t>47,57%</t>
   </si>
   <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
   </si>
   <si>
     <t>42,23%</t>
   </si>
   <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
   </si>
   <si>
     <t>63,53%</t>
   </si>
   <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
   </si>
   <si>
     <t>60,39%</t>
   </si>
   <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
   </si>
   <si>
     <t>61,93%</t>
   </si>
   <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
   </si>
   <si>
     <t>36,47%</t>
   </si>
   <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
   </si>
   <si>
     <t>39,61%</t>
   </si>
   <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
   </si>
   <si>
     <t>38,07%</t>
   </si>
   <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
   </si>
   <si>
     <t>Población según si están casados o viven en pareja en 2023 (Tasa respuesta: 100,0%)</t>
@@ -1620,7 +1608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{032E355C-AD03-471C-A79B-81205F479CDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28EC516C-098F-4F2F-A5FE-B5639B92B24F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2822,7 +2810,7 @@
         <v>2096</v>
       </c>
       <c r="D25" s="7">
-        <v>2142458</v>
+        <v>2142457</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>121</v>
@@ -2855,13 +2843,13 @@
         <v>4256715</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2876,13 +2864,13 @@
         <v>1133174</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H26" s="7">
         <v>1244</v>
@@ -2891,13 +2879,13 @@
         <v>1264940</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M26" s="7">
         <v>2361</v>
@@ -2906,13 +2894,13 @@
         <v>2398114</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2924,7 +2912,7 @@
         <v>3213</v>
       </c>
       <c r="D27" s="7">
-        <v>3275632</v>
+        <v>3275631</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>36</v>
@@ -2968,7 +2956,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2989,7 +2977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB1A088-7AD6-433A-833D-53BA6D37914B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BC1AAA-2E2E-4185-A5FF-0E4948365C31}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3006,7 +2994,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3119,37 +3107,37 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3164,13 +3152,13 @@
         <v>64035</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H5" s="7">
         <v>67</v>
@@ -3179,13 +3167,13 @@
         <v>75579</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M5" s="7">
         <v>137</v>
@@ -3194,13 +3182,13 @@
         <v>139613</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3215,13 +3203,13 @@
         <v>48495</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H6" s="7">
         <v>30</v>
@@ -3230,13 +3218,13 @@
         <v>34183</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M6" s="7">
         <v>79</v>
@@ -3245,7 +3233,7 @@
         <v>82679</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>158</v>
@@ -3609,10 +3597,10 @@
         <v>187</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3627,13 +3615,13 @@
         <v>347862</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H14" s="7">
         <v>321</v>
@@ -3642,13 +3630,13 @@
         <v>344342</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M14" s="7">
         <v>643</v>
@@ -3657,13 +3645,13 @@
         <v>692204</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>197</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>198</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,7 +3740,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3782,13 +3770,13 @@
         <v>500806</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H17" s="7">
         <v>463</v>
@@ -3797,13 +3785,13 @@
         <v>513483</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M17" s="7">
         <v>913</v>
@@ -3812,13 +3800,13 @@
         <v>1014289</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,13 +3821,13 @@
         <v>255876</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H18" s="7">
         <v>242</v>
@@ -3848,13 +3836,13 @@
         <v>263691</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M18" s="7">
         <v>480</v>
@@ -3863,13 +3851,13 @@
         <v>519567</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3988,13 +3976,13 @@
         <v>592346</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H21" s="7">
         <v>606</v>
@@ -4003,13 +3991,13 @@
         <v>637144</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>125</v>
+        <v>219</v>
       </c>
       <c r="K21" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M21" s="7">
         <v>1167</v>
@@ -4018,13 +4006,13 @@
         <v>1229490</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4039,13 +4027,13 @@
         <v>352619</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H22" s="7">
         <v>390</v>
@@ -4054,13 +4042,13 @@
         <v>406958</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>135</v>
+        <v>227</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>132</v>
+        <v>228</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M22" s="7">
         <v>736</v>
@@ -4069,7 +4057,7 @@
         <v>759577</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>229</v>
+        <v>176</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>230</v>
@@ -4191,7 +4179,7 @@
         <v>2058</v>
       </c>
       <c r="D25" s="7">
-        <v>2219742</v>
+        <v>2219741</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>232</v>
@@ -4293,7 +4281,7 @@
         <v>3197</v>
       </c>
       <c r="D27" s="7">
-        <v>3414962</v>
+        <v>3414961</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>36</v>
@@ -4337,7 +4325,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -4358,7 +4346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB57FE9-9FF3-495F-879D-E57E1723086A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40754AB-05DF-4CE2-BBB6-D3D3191251D8}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4775,7 +4763,7 @@
         <v>280</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>281</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4790,13 +4778,13 @@
         <v>203245</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H10" s="7">
         <v>199</v>
@@ -4805,13 +4793,13 @@
         <v>205626</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M10" s="7">
         <v>398</v>
@@ -4820,13 +4808,13 @@
         <v>408870</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4945,13 +4933,13 @@
         <v>641913</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="H13" s="7">
         <v>644</v>
@@ -4960,13 +4948,13 @@
         <v>691217</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M13" s="7">
         <v>1234</v>
@@ -4975,13 +4963,13 @@
         <v>1333130</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4996,13 +4984,13 @@
         <v>378450</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="H14" s="7">
         <v>333</v>
@@ -5011,13 +4999,13 @@
         <v>351696</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="M14" s="7">
         <v>692</v>
@@ -5026,13 +5014,13 @@
         <v>730146</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5121,7 +5109,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5136,7 +5124,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5151,13 +5139,13 @@
         <v>485895</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>224</v>
+        <v>309</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="H17" s="7">
         <v>447</v>
@@ -5166,13 +5154,13 @@
         <v>473699</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>314</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>315</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>893</v>
@@ -5181,13 +5169,13 @@
         <v>959594</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>317</v>
+        <v>222</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,13 +5190,13 @@
         <v>273657</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>230</v>
+        <v>316</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H18" s="7">
         <v>289</v>
@@ -5217,13 +5205,13 @@
         <v>311312</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>322</v>
+        <v>111</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="M18" s="7">
         <v>539</v>
@@ -5232,13 +5220,13 @@
         <v>584969</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>326</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5357,13 +5345,13 @@
         <v>596709</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H21" s="7">
         <v>507</v>
@@ -5372,13 +5360,13 @@
         <v>546259</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M21" s="7">
         <v>1102</v>
@@ -5387,13 +5375,13 @@
         <v>1142968</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5408,13 +5396,13 @@
         <v>339803</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="H22" s="7">
         <v>450</v>
@@ -5423,13 +5411,13 @@
         <v>495690</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="M22" s="7">
         <v>786</v>
@@ -5438,13 +5426,13 @@
         <v>835493</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5560,16 +5548,16 @@
         <v>2043</v>
       </c>
       <c r="D25" s="7">
-        <v>2154352</v>
+        <v>2154351</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H25" s="7">
         <v>2024</v>
@@ -5578,28 +5566,28 @@
         <v>2139529</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M25" s="7">
         <v>4067</v>
       </c>
       <c r="N25" s="7">
-        <v>4293880</v>
+        <v>4293881</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5614,13 +5602,13 @@
         <v>1236875</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H26" s="7">
         <v>1312</v>
@@ -5629,13 +5617,13 @@
         <v>1403183</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="M26" s="7">
         <v>2497</v>
@@ -5644,13 +5632,13 @@
         <v>2640058</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5662,7 +5650,7 @@
         <v>3228</v>
       </c>
       <c r="D27" s="7">
-        <v>3391227</v>
+        <v>3391226</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>36</v>
@@ -5692,7 +5680,7 @@
         <v>6564</v>
       </c>
       <c r="N27" s="7">
-        <v>6933938</v>
+        <v>6933939</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>36</v>
@@ -5706,7 +5694,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -5727,7 +5715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFAF80C2-1AE1-4252-8E09-1E9024B65F95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF0BCA1-9F61-46A3-B265-5FB888E281C1}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5744,7 +5732,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5851,10 +5839,10 @@
         <v>101982</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>36</v>
@@ -5866,10 +5854,10 @@
         <v>130733</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>36</v>
@@ -5881,10 +5869,10 @@
         <v>232715</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>36</v>
@@ -5908,7 +5896,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5923,7 +5911,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5938,7 +5926,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5959,7 +5947,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5974,7 +5962,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5989,7 +5977,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6057,10 +6045,10 @@
         <v>549823</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>36</v>
@@ -6072,10 +6060,10 @@
         <v>619967</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>36</v>
@@ -6087,10 +6075,10 @@
         <v>1169790</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>36</v>
@@ -6114,7 +6102,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -6144,7 +6132,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6165,7 +6153,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -6195,7 +6183,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6263,10 +6251,10 @@
         <v>1039248</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>36</v>
@@ -6278,10 +6266,10 @@
         <v>1060079</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>36</v>
@@ -6293,10 +6281,10 @@
         <v>2099327</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>36</v>
@@ -6335,7 +6323,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6350,7 +6338,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6386,7 +6374,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6401,7 +6389,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6469,10 +6457,10 @@
         <v>728772</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>36</v>
@@ -6484,10 +6472,10 @@
         <v>874371</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>36</v>
@@ -6499,10 +6487,10 @@
         <v>1603142</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>36</v>
@@ -6675,10 +6663,10 @@
         <v>965403</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>36</v>
@@ -6690,10 +6678,10 @@
         <v>1150432</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>36</v>
@@ -6705,10 +6693,10 @@
         <v>2115835</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>36</v>
@@ -6747,7 +6735,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -6762,7 +6750,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6798,7 +6786,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6813,7 +6801,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6881,10 +6869,10 @@
         <v>3385228</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>36</v>
@@ -6896,10 +6884,10 @@
         <v>3835581</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>36</v>
@@ -6911,10 +6899,10 @@
         <v>7220808</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>36</v>
@@ -6953,7 +6941,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -6968,7 +6956,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7004,7 +6992,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -7019,7 +7007,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7075,7 +7063,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P73-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P73-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AE6E6F9-A03B-4B47-B54F-1646B12AF88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52529229-8652-4CBA-AA4D-E573BD7087D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C4202622-00DF-4248-8FBA-E3CF8DD4241A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5D2C32F6-9F5D-46DE-8925-2D16AECF7181}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="271">
   <si>
     <t>Población según si están casados o viven en pareja en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -67,759 +67,588 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>65,24%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si están casados o viven en pareja en 2012 (Tasa respuesta: 99,57%)</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>Población según si están casados o viven en pareja en 2016 (Tasa respuesta: 99,92%)</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>63,66%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
   </si>
   <si>
     <t>61,09%</t>
   </si>
   <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
   </si>
   <si>
     <t>38,91%</t>
   </si>
   <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si están casados o viven en pareja en 2012 (Tasa respuesta: 99,57%)</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>Población según si están casados o viven en pareja en 2016 (Tasa respuesta: 99,92%)</t>
-  </si>
-  <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
     <t>62,91%</t>
   </si>
   <si>
@@ -886,9 +715,6 @@
     <t>63,83%</t>
   </si>
   <si>
-    <t>62,13%</t>
-  </si>
-  <si>
     <t>59,45%</t>
   </si>
   <si>
@@ -911,9 +737,6 @@
   </si>
   <si>
     <t>43,38%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
   </si>
   <si>
     <t>35,54%</t>
@@ -1439,8 +1262,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD96020F-F691-4F18-B8EB-F791A513A83E}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB7BA9CE-CA9E-4F46-87A1-494B5316B977}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1557,10 +1380,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>72</v>
+        <v>447</v>
       </c>
       <c r="D4" s="7">
-        <v>78469</v>
+        <v>455959</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1572,10 +1395,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>89</v>
+        <v>446</v>
       </c>
       <c r="I4" s="7">
-        <v>78715</v>
+        <v>440628</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1587,10 +1410,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>161</v>
+        <v>893</v>
       </c>
       <c r="N4" s="7">
-        <v>157185</v>
+        <v>896587</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1608,10 +1431,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>33</v>
+        <v>236</v>
       </c>
       <c r="D5" s="7">
-        <v>36889</v>
+        <v>238053</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1623,10 +1446,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>39</v>
+        <v>250</v>
       </c>
       <c r="I5" s="7">
-        <v>34040</v>
+        <v>247723</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1638,10 +1461,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>72</v>
+        <v>486</v>
       </c>
       <c r="N5" s="7">
-        <v>70928</v>
+        <v>485776</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1659,10 +1482,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1674,10 +1497,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1689,10 +1512,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1712,10 +1535,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>375</v>
+        <v>596</v>
       </c>
       <c r="D7" s="7">
-        <v>377489</v>
+        <v>638155</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1727,34 +1550,34 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>357</v>
+        <v>595</v>
       </c>
       <c r="I7" s="7">
-        <v>361913</v>
+        <v>642550</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>1191</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1280705</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="7">
-        <v>732</v>
-      </c>
-      <c r="N7" s="7">
-        <v>739402</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1763,49 +1586,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>203</v>
+        <v>300</v>
       </c>
       <c r="D8" s="7">
-        <v>201165</v>
+        <v>323645</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>313</v>
+      </c>
+      <c r="I8" s="7">
+        <v>325843</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="7">
-        <v>211</v>
-      </c>
-      <c r="I8" s="7">
-        <v>213683</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>613</v>
+      </c>
+      <c r="N8" s="7">
+        <v>649488</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M8" s="7">
-        <v>414</v>
-      </c>
-      <c r="N8" s="7">
-        <v>414848</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1814,10 +1637,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1829,10 +1652,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1844,10 +1667,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1861,55 +1684,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>596</v>
+        <v>445</v>
       </c>
       <c r="D10" s="7">
-        <v>638155</v>
+        <v>472903</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="7">
+        <v>444</v>
+      </c>
+      <c r="I10" s="7">
+        <v>438509</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>889</v>
+      </c>
+      <c r="N10" s="7">
+        <v>911412</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="7">
-        <v>595</v>
-      </c>
-      <c r="I10" s="7">
-        <v>642550</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M10" s="7">
-        <v>1191</v>
-      </c>
-      <c r="N10" s="7">
-        <v>1280705</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1918,49 +1741,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>300</v>
+        <v>196</v>
       </c>
       <c r="D11" s="7">
-        <v>323645</v>
+        <v>205606</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="7">
+        <v>252</v>
+      </c>
+      <c r="I11" s="7">
+        <v>245332</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>448</v>
+      </c>
+      <c r="N11" s="7">
+        <v>450938</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="7">
-        <v>313</v>
-      </c>
-      <c r="I11" s="7">
-        <v>325843</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="M11" s="7">
-        <v>613</v>
-      </c>
-      <c r="N11" s="7">
-        <v>649488</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1969,10 +1792,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1984,10 +1807,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1999,10 +1822,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2016,55 +1839,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>445</v>
+        <v>608</v>
       </c>
       <c r="D13" s="7">
-        <v>472903</v>
+        <v>575440</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="7">
+        <v>568</v>
+      </c>
+      <c r="I13" s="7">
+        <v>592570</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="7">
-        <v>444</v>
-      </c>
-      <c r="I13" s="7">
-        <v>438509</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>1176</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1168010</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="M13" s="7">
-        <v>889</v>
-      </c>
-      <c r="N13" s="7">
-        <v>911412</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2073,49 +1896,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>196</v>
+        <v>385</v>
       </c>
       <c r="D14" s="7">
-        <v>205606</v>
+        <v>365870</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="7">
+        <v>429</v>
+      </c>
+      <c r="I14" s="7">
+        <v>446042</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H14" s="7">
-        <v>252</v>
-      </c>
-      <c r="I14" s="7">
-        <v>245332</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>814</v>
+      </c>
+      <c r="N14" s="7">
+        <v>811912</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="M14" s="7">
-        <v>448</v>
-      </c>
-      <c r="N14" s="7">
-        <v>450938</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2124,10 +1947,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>993</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>941310</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2139,10 +1962,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2154,10 +1977,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1990</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1979922</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2171,55 +1994,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>608</v>
+        <v>2096</v>
       </c>
       <c r="D16" s="7">
-        <v>575440</v>
+        <v>2142457</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2053</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2114257</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H16" s="7">
-        <v>568</v>
-      </c>
-      <c r="I16" s="7">
-        <v>592570</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>4149</v>
+      </c>
+      <c r="N16" s="7">
+        <v>4256715</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="M16" s="7">
-        <v>1176</v>
-      </c>
-      <c r="N16" s="7">
-        <v>1168010</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2228,49 +2051,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>385</v>
+        <v>1117</v>
       </c>
       <c r="D17" s="7">
-        <v>365870</v>
+        <v>1133174</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1244</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1264940</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="H17" s="7">
-        <v>429</v>
-      </c>
-      <c r="I17" s="7">
-        <v>446042</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>2361</v>
+      </c>
+      <c r="N17" s="7">
+        <v>2398114</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="M17" s="7">
-        <v>814</v>
-      </c>
-      <c r="N17" s="7">
-        <v>811912</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2279,10 +2102,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>993</v>
+        <v>3213</v>
       </c>
       <c r="D18" s="7">
-        <v>941310</v>
+        <v>3275631</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2294,10 +2117,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2309,10 +2132,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1990</v>
+        <v>6510</v>
       </c>
       <c r="N18" s="7">
-        <v>1979922</v>
+        <v>6654829</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2325,171 +2148,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2096</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2142457</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2053</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2114258</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="M19" s="7">
-        <v>4149</v>
-      </c>
-      <c r="N19" s="7">
-        <v>4256715</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1117</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1133174</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1244</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1264940</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2361</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2398114</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3213</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3275631</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6510</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6654829</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>115</v>
+      <c r="A19" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2502,8 +2169,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C6D313C-FB16-4425-BD0F-F88819194958}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCEEB7F-09C8-4F8B-ABA7-BDC9EEE90D3B}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2519,7 +2186,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2620,49 +2287,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>70</v>
+        <v>434</v>
       </c>
       <c r="D4" s="7">
-        <v>64035</v>
+        <v>457636</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="H4" s="7">
-        <v>67</v>
+        <v>428</v>
       </c>
       <c r="I4" s="7">
-        <v>75579</v>
+        <v>460110</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="M4" s="7">
-        <v>137</v>
+        <v>862</v>
       </c>
       <c r="N4" s="7">
-        <v>139613</v>
+        <v>917747</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2671,49 +2338,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>49</v>
+        <v>233</v>
       </c>
       <c r="D5" s="7">
-        <v>48495</v>
+        <v>238863</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="H5" s="7">
-        <v>30</v>
+        <v>214</v>
       </c>
       <c r="I5" s="7">
-        <v>34183</v>
+        <v>228217</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="M5" s="7">
-        <v>79</v>
+        <v>447</v>
       </c>
       <c r="N5" s="7">
-        <v>82679</v>
+        <v>467079</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2722,10 +2389,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>119</v>
+        <v>667</v>
       </c>
       <c r="D6" s="7">
-        <v>112530</v>
+        <v>696499</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2737,10 +2404,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>97</v>
+        <v>642</v>
       </c>
       <c r="I6" s="7">
-        <v>109762</v>
+        <v>688327</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2752,10 +2419,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>216</v>
+        <v>1309</v>
       </c>
       <c r="N6" s="7">
-        <v>222292</v>
+        <v>1384826</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2775,49 +2442,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>364</v>
+        <v>613</v>
       </c>
       <c r="D7" s="7">
-        <v>393601</v>
+        <v>668953</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="H7" s="7">
-        <v>361</v>
+        <v>618</v>
       </c>
       <c r="I7" s="7">
-        <v>384532</v>
+        <v>686872</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="M7" s="7">
-        <v>725</v>
+        <v>1231</v>
       </c>
       <c r="N7" s="7">
-        <v>778132</v>
+        <v>1355825</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2826,49 +2493,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>184</v>
+        <v>322</v>
       </c>
       <c r="D8" s="7">
-        <v>190368</v>
+        <v>347862</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="H8" s="7">
-        <v>184</v>
+        <v>321</v>
       </c>
       <c r="I8" s="7">
-        <v>194033</v>
+        <v>344342</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="M8" s="7">
-        <v>368</v>
+        <v>643</v>
       </c>
       <c r="N8" s="7">
-        <v>384401</v>
+        <v>692204</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2877,10 +2544,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>548</v>
+        <v>935</v>
       </c>
       <c r="D9" s="7">
-        <v>583969</v>
+        <v>1016815</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2892,10 +2559,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>545</v>
+        <v>939</v>
       </c>
       <c r="I9" s="7">
-        <v>578565</v>
+        <v>1031214</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2907,10 +2574,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1093</v>
+        <v>1874</v>
       </c>
       <c r="N9" s="7">
-        <v>1162533</v>
+        <v>2048029</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2924,55 +2591,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>613</v>
+        <v>450</v>
       </c>
       <c r="D10" s="7">
-        <v>668953</v>
+        <v>500806</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="H10" s="7">
-        <v>618</v>
+        <v>463</v>
       </c>
       <c r="I10" s="7">
-        <v>686872</v>
+        <v>513483</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="M10" s="7">
-        <v>1231</v>
+        <v>913</v>
       </c>
       <c r="N10" s="7">
-        <v>1355825</v>
+        <v>1014289</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,49 +2648,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>322</v>
+        <v>238</v>
       </c>
       <c r="D11" s="7">
-        <v>347862</v>
+        <v>255876</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="H11" s="7">
-        <v>321</v>
+        <v>242</v>
       </c>
       <c r="I11" s="7">
-        <v>344342</v>
+        <v>263691</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="M11" s="7">
-        <v>643</v>
+        <v>480</v>
       </c>
       <c r="N11" s="7">
-        <v>692204</v>
+        <v>519567</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3032,10 +2699,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>935</v>
+        <v>688</v>
       </c>
       <c r="D12" s="7">
-        <v>1016815</v>
+        <v>756682</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3047,10 +2714,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>939</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1031214</v>
+        <v>777174</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3062,10 +2729,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1874</v>
+        <v>1393</v>
       </c>
       <c r="N12" s="7">
-        <v>2048029</v>
+        <v>1533856</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3079,55 +2746,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>450</v>
+        <v>561</v>
       </c>
       <c r="D13" s="7">
-        <v>500806</v>
+        <v>592346</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="H13" s="7">
-        <v>463</v>
+        <v>606</v>
       </c>
       <c r="I13" s="7">
-        <v>513483</v>
+        <v>637144</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="M13" s="7">
-        <v>913</v>
+        <v>1167</v>
       </c>
       <c r="N13" s="7">
-        <v>1014289</v>
+        <v>1229490</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,49 +2803,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>238</v>
+        <v>346</v>
       </c>
       <c r="D14" s="7">
-        <v>255876</v>
+        <v>352619</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="H14" s="7">
-        <v>242</v>
+        <v>390</v>
       </c>
       <c r="I14" s="7">
-        <v>263691</v>
+        <v>406958</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="M14" s="7">
-        <v>480</v>
+        <v>736</v>
       </c>
       <c r="N14" s="7">
-        <v>519567</v>
+        <v>759577</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3187,10 +2854,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>688</v>
+        <v>907</v>
       </c>
       <c r="D15" s="7">
-        <v>756682</v>
+        <v>944965</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3202,10 +2869,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>705</v>
+        <v>996</v>
       </c>
       <c r="I15" s="7">
-        <v>777174</v>
+        <v>1044102</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3217,10 +2884,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1393</v>
+        <v>1903</v>
       </c>
       <c r="N15" s="7">
-        <v>1533856</v>
+        <v>1989067</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3234,55 +2901,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>561</v>
+        <v>2058</v>
       </c>
       <c r="D16" s="7">
-        <v>592346</v>
+        <v>2219741</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="H16" s="7">
-        <v>606</v>
+        <v>2115</v>
       </c>
       <c r="I16" s="7">
-        <v>637144</v>
+        <v>2297610</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="M16" s="7">
-        <v>1167</v>
+        <v>4173</v>
       </c>
       <c r="N16" s="7">
-        <v>1229490</v>
+        <v>4517351</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3291,49 +2958,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>346</v>
+        <v>1139</v>
       </c>
       <c r="D17" s="7">
-        <v>352619</v>
+        <v>1195220</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="H17" s="7">
-        <v>390</v>
+        <v>1167</v>
       </c>
       <c r="I17" s="7">
-        <v>406958</v>
+        <v>1243207</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="M17" s="7">
-        <v>736</v>
+        <v>2306</v>
       </c>
       <c r="N17" s="7">
-        <v>759577</v>
+        <v>2438427</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3342,10 +3009,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>907</v>
+        <v>3197</v>
       </c>
       <c r="D18" s="7">
-        <v>944965</v>
+        <v>3414961</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3357,10 +3024,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>996</v>
+        <v>3282</v>
       </c>
       <c r="I18" s="7">
-        <v>1044102</v>
+        <v>3540817</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3372,10 +3039,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1903</v>
+        <v>6479</v>
       </c>
       <c r="N18" s="7">
-        <v>1989067</v>
+        <v>6955778</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3388,171 +3055,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2058</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2219742</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2115</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2297610</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="M19" s="7">
-        <v>4173</v>
-      </c>
-      <c r="N19" s="7">
-        <v>4517351</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1139</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1195220</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1167</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1243207</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2306</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2438427</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3197</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3414962</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3282</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3540817</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6479</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6955778</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>115</v>
+      <c r="A19" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3565,8 +3076,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7E827A5-2B6C-4AFF-B0AC-916209BF7CCC}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ABC658C-E1EF-453B-A82A-401F9279C73C}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3582,7 +3093,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3683,49 +3194,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>72</v>
+        <v>412</v>
       </c>
       <c r="D4" s="7">
-        <v>74825</v>
+        <v>429834</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>226</v>
+        <v>81</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="H4" s="7">
-        <v>74</v>
+        <v>426</v>
       </c>
       <c r="I4" s="7">
-        <v>74501</v>
+        <v>428355</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="M4" s="7">
-        <v>146</v>
+        <v>838</v>
       </c>
       <c r="N4" s="7">
-        <v>149326</v>
+        <v>858189</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>232</v>
+        <v>141</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,49 +3245,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>41</v>
+        <v>240</v>
       </c>
       <c r="D5" s="7">
-        <v>41721</v>
+        <v>244966</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>235</v>
+        <v>90</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>236</v>
+        <v>196</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>237</v>
+        <v>197</v>
       </c>
       <c r="H5" s="7">
-        <v>41</v>
+        <v>240</v>
       </c>
       <c r="I5" s="7">
-        <v>38859</v>
+        <v>244484</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>238</v>
+        <v>198</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>239</v>
+        <v>199</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="M5" s="7">
-        <v>82</v>
+        <v>480</v>
       </c>
       <c r="N5" s="7">
-        <v>80580</v>
+        <v>489450</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>241</v>
+        <v>151</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>243</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3785,10 +3296,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3800,10 +3311,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3815,10 +3326,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3838,49 +3349,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>340</v>
+        <v>590</v>
       </c>
       <c r="D7" s="7">
-        <v>355009</v>
+        <v>641913</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>244</v>
+        <v>203</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>245</v>
+        <v>204</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="H7" s="7">
-        <v>352</v>
+        <v>644</v>
       </c>
       <c r="I7" s="7">
-        <v>353853</v>
+        <v>691217</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>692</v>
+        <v>1234</v>
       </c>
       <c r="N7" s="7">
-        <v>708863</v>
+        <v>1333130</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3889,49 +3400,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>199</v>
+        <v>359</v>
       </c>
       <c r="D8" s="7">
-        <v>203245</v>
+        <v>378450</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>252</v>
+        <v>211</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>254</v>
+        <v>213</v>
       </c>
       <c r="H8" s="7">
-        <v>199</v>
+        <v>333</v>
       </c>
       <c r="I8" s="7">
-        <v>205626</v>
+        <v>351696</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>255</v>
+        <v>214</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>256</v>
+        <v>215</v>
       </c>
       <c r="M8" s="7">
-        <v>398</v>
+        <v>692</v>
       </c>
       <c r="N8" s="7">
-        <v>408870</v>
+        <v>730146</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>258</v>
+        <v>217</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>259</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3940,10 +3451,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>949</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1020363</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3955,10 +3466,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3970,10 +3481,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1926</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2063276</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3987,55 +3498,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>590</v>
+        <v>446</v>
       </c>
       <c r="D10" s="7">
-        <v>641913</v>
+        <v>485895</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>260</v>
+        <v>219</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>262</v>
+        <v>221</v>
       </c>
       <c r="H10" s="7">
-        <v>644</v>
+        <v>447</v>
       </c>
       <c r="I10" s="7">
-        <v>691217</v>
+        <v>473699</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>263</v>
+        <v>222</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>264</v>
+        <v>223</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>224</v>
       </c>
       <c r="M10" s="7">
-        <v>1234</v>
+        <v>893</v>
       </c>
       <c r="N10" s="7">
-        <v>1333130</v>
+        <v>959594</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>265</v>
+        <v>12</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>267</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,49 +3555,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>359</v>
+        <v>250</v>
       </c>
       <c r="D11" s="7">
-        <v>378450</v>
+        <v>273657</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>268</v>
+        <v>227</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>269</v>
+        <v>228</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="H11" s="7">
-        <v>333</v>
+        <v>289</v>
       </c>
       <c r="I11" s="7">
-        <v>351696</v>
+        <v>311312</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>271</v>
+        <v>230</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>61</v>
+        <v>231</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="M11" s="7">
-        <v>692</v>
+        <v>539</v>
       </c>
       <c r="N11" s="7">
-        <v>730146</v>
+        <v>584969</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>273</v>
+        <v>23</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>275</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4095,10 +3606,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>949</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1020363</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4110,10 +3621,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4125,10 +3636,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1926</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2063276</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4142,55 +3653,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>446</v>
+        <v>595</v>
       </c>
       <c r="D13" s="7">
-        <v>485895</v>
+        <v>596709</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>276</v>
+        <v>235</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>278</v>
+        <v>237</v>
       </c>
       <c r="H13" s="7">
-        <v>447</v>
+        <v>507</v>
       </c>
       <c r="I13" s="7">
-        <v>473699</v>
+        <v>546259</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>279</v>
+        <v>238</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>280</v>
+        <v>239</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>281</v>
+        <v>240</v>
       </c>
       <c r="M13" s="7">
-        <v>893</v>
+        <v>1102</v>
       </c>
       <c r="N13" s="7">
-        <v>959594</v>
+        <v>1142968</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>282</v>
+        <v>241</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>283</v>
+        <v>242</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,49 +3710,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>336</v>
+      </c>
+      <c r="D14" s="7">
+        <v>339803</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H14" s="7">
+        <v>450</v>
+      </c>
+      <c r="I14" s="7">
+        <v>495690</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="M14" s="7">
+        <v>786</v>
+      </c>
+      <c r="N14" s="7">
+        <v>835493</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="D14" s="7">
-        <v>273657</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="H14" s="7">
-        <v>289</v>
-      </c>
-      <c r="I14" s="7">
-        <v>311312</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="M14" s="7">
-        <v>539</v>
-      </c>
-      <c r="N14" s="7">
-        <v>584969</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>291</v>
-      </c>
       <c r="P14" s="7" t="s">
-        <v>292</v>
+        <v>251</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>293</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4250,10 +3761,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>931</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>936512</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4265,10 +3776,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>957</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1041949</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4280,10 +3791,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1888</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1978461</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4297,55 +3808,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>595</v>
+        <v>2043</v>
       </c>
       <c r="D16" s="7">
-        <v>596709</v>
+        <v>2154352</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>294</v>
+        <v>253</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>295</v>
+        <v>254</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c r="H16" s="7">
-        <v>507</v>
+        <v>2024</v>
       </c>
       <c r="I16" s="7">
-        <v>546259</v>
+        <v>2139529</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>297</v>
+        <v>256</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>299</v>
+        <v>258</v>
       </c>
       <c r="M16" s="7">
-        <v>1102</v>
+        <v>4067</v>
       </c>
       <c r="N16" s="7">
-        <v>1142968</v>
+        <v>4293881</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>300</v>
+        <v>259</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>301</v>
+        <v>260</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>302</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4354,49 +3865,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>336</v>
+        <v>1185</v>
       </c>
       <c r="D17" s="7">
-        <v>339803</v>
+        <v>1236875</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>303</v>
+        <v>262</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>304</v>
+        <v>263</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>305</v>
+        <v>264</v>
       </c>
       <c r="H17" s="7">
-        <v>450</v>
+        <v>1312</v>
       </c>
       <c r="I17" s="7">
-        <v>495690</v>
+        <v>1403183</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>306</v>
+        <v>265</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>308</v>
+        <v>267</v>
       </c>
       <c r="M17" s="7">
-        <v>786</v>
+        <v>2497</v>
       </c>
       <c r="N17" s="7">
-        <v>835493</v>
+        <v>2640058</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>309</v>
+        <v>268</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>310</v>
+        <v>269</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>311</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4405,10 +3916,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>931</v>
+        <v>3228</v>
       </c>
       <c r="D18" s="7">
-        <v>936512</v>
+        <v>3391227</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4420,10 +3931,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>957</v>
+        <v>3336</v>
       </c>
       <c r="I18" s="7">
-        <v>1041949</v>
+        <v>3542712</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4435,10 +3946,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1888</v>
+        <v>6564</v>
       </c>
       <c r="N18" s="7">
-        <v>1978461</v>
+        <v>6933939</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4451,171 +3962,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2043</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2154352</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2024</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2139529</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="M19" s="7">
-        <v>4067</v>
-      </c>
-      <c r="N19" s="7">
-        <v>4293881</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1185</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1236875</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1312</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1403183</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2497</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2640058</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3228</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3391227</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3336</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3542712</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6564</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6933939</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>115</v>
+      <c r="A19" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
